--- a/files/Copia de demo-ss WMSOK(1).xlsx
+++ b/files/Copia de demo-ss WMSOK(1).xlsx
@@ -36,13 +36,16 @@
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
   <si>
     <t>codigo</t>
   </si>
@@ -533,31 +536,46 @@
     <t>cantidad</t>
   </si>
   <si>
-    <t>EL11C5</t>
+    <t>EL8C5</t>
+  </si>
+  <si>
+    <t>T4A2</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>HG17C6</t>
+  </si>
+  <si>
+    <t>324</t>
   </si>
   <si>
     <t>A2A2</t>
   </si>
   <si>
-    <t>72</t>
+    <t>HG21C1</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>HG22C5</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>EL14C6</t>
+    <t>BB22C22</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>HG126C11</t>
-  </si>
-  <si>
-    <t>F3A5</t>
-  </si>
-  <si>
-    <t>48</t>
+    <t>63</t>
   </si>
   <si>
     <t>costoUnitario</t>
@@ -2377,145 +2395,145 @@
   <sheetData>
     <row customHeight="1" ht="51" r="1" spans="1:47">
       <c r="A1" s="46" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="J1" s="47" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L1" s="47" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="49" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P1" s="49" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q1" s="49" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="R1" s="49" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="S1" s="49" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="T1" s="49" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="U1" s="50" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="V1" s="50" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="W1" s="50" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="X1" s="50" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Y1" s="50" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Z1" s="51" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AA1" s="51" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AB1" s="51" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AC1" s="51" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AD1" s="51" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AE1" s="51" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AF1" s="51" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AG1" s="52" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AH1" s="52" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AI1" s="52" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AJ1" s="52" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AL1" s="52" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AM1" s="53" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AN1" s="53" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AO1" s="53" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AP1" s="53" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AQ1" s="53" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AR1" s="53" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AS1" s="54" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AT1" s="54" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AU1" s="54" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:47">
@@ -2562,10 +2580,10 @@
       <c r="AI2" s="55" t="n"/>
       <c r="AJ2" s="55" t="n"/>
       <c r="AK2" s="25" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AL2" s="25" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AM2" s="55" t="n"/>
       <c r="AN2" s="55" t="n"/>
@@ -2619,10 +2637,10 @@
       <c r="AI3" s="55" t="n"/>
       <c r="AJ3" s="55" t="n"/>
       <c r="AK3" s="25" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AL3" s="25" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AM3" s="55" t="n"/>
       <c r="AN3" s="55" t="n"/>
@@ -2678,10 +2696,10 @@
       <c r="AI4" s="55" t="n"/>
       <c r="AJ4" s="55" t="n"/>
       <c r="AK4" s="25" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AL4" s="25" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AM4" s="55" t="n"/>
       <c r="AN4" s="55" t="n"/>
@@ -3791,10 +3809,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>162</v>
@@ -3802,10 +3820,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -3813,10 +3831,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -3824,10 +3842,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -3835,10 +3853,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -3880,12 +3898,12 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="11" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3920,7 +3938,7 @@
         <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3931,29 +3949,29 @@
         <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="11" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B3" s="25" t="n">
         <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="11" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B4" s="25" t="n">
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4029,7 +4047,7 @@
         <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4086,7 +4104,7 @@
         <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4140,7 +4158,7 @@
         <v>162</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4153,7 +4171,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C3" s="25" t="n">
         <v>54781769398</v>
@@ -4161,7 +4179,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C4" s="25" t="n">
         <v>54781769406</v>
@@ -4193,7 +4211,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -4203,7 +4221,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4213,7 +4231,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -4223,7 +4241,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -4262,7 +4280,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -6444,12 +6462,12 @@
         <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -6460,7 +6478,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -6471,7 +6489,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -6482,7 +6500,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -6520,12 +6538,12 @@
         <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="72" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B2" t="n">
         <v>1450</v>
@@ -6565,7 +6583,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="73" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B2" t="n">
         <v>10</v>
@@ -6602,7 +6620,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="73" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -6621,9 +6639,9 @@
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0" zoomScale="150">
+    <sheetView workbookViewId="0" zoomScale="150">
       <selection activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -6697,194 +6715,1712 @@
         <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" t="s">
-        <v>171</v>
+        <v>164</v>
+      </c>
+      <c r="C21" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
         <v>169</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B62" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" t="s">
         <v>170</v>
       </c>
-      <c r="C23" t="n">
-        <v>16</v>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>172</v>
+      </c>
+      <c r="B93" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" t="s">
+        <v>168</v>
+      </c>
+      <c r="C95" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>172</v>
+      </c>
+      <c r="B100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>175</v>
+      </c>
+      <c r="B102" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>175</v>
+      </c>
+      <c r="B103" t="s">
+        <v>168</v>
+      </c>
+      <c r="C103" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>175</v>
+      </c>
+      <c r="B105" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>175</v>
+      </c>
+      <c r="B106" t="s">
+        <v>168</v>
+      </c>
+      <c r="C106" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>175</v>
+      </c>
+      <c r="B107" t="s">
+        <v>168</v>
+      </c>
+      <c r="C107" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>175</v>
+      </c>
+      <c r="B108" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>175</v>
+      </c>
+      <c r="B109" t="s">
+        <v>168</v>
+      </c>
+      <c r="C109" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>175</v>
+      </c>
+      <c r="B110" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>175</v>
+      </c>
+      <c r="B111" t="s">
+        <v>168</v>
+      </c>
+      <c r="C111" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112" t="s">
+        <v>168</v>
+      </c>
+      <c r="C112" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>175</v>
+      </c>
+      <c r="B113" t="s">
+        <v>168</v>
+      </c>
+      <c r="C113" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>175</v>
+      </c>
+      <c r="B114" t="s">
+        <v>168</v>
+      </c>
+      <c r="C114" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>175</v>
+      </c>
+      <c r="B115" t="s">
+        <v>168</v>
+      </c>
+      <c r="C115" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>175</v>
+      </c>
+      <c r="B116" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117" t="s">
+        <v>168</v>
+      </c>
+      <c r="C117" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>175</v>
+      </c>
+      <c r="B118" t="s">
+        <v>168</v>
+      </c>
+      <c r="C118" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>175</v>
+      </c>
+      <c r="B119" t="s">
+        <v>168</v>
+      </c>
+      <c r="C119" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>175</v>
+      </c>
+      <c r="B121" t="s">
+        <v>168</v>
+      </c>
+      <c r="C121" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>175</v>
+      </c>
+      <c r="B122" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>175</v>
+      </c>
+      <c r="B123" t="s">
+        <v>168</v>
+      </c>
+      <c r="C123" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>175</v>
+      </c>
+      <c r="B124" t="s">
+        <v>168</v>
+      </c>
+      <c r="C124" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>175</v>
+      </c>
+      <c r="B125" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>175</v>
+      </c>
+      <c r="B126" t="s">
+        <v>168</v>
+      </c>
+      <c r="C126" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>175</v>
+      </c>
+      <c r="B127" t="s">
+        <v>168</v>
+      </c>
+      <c r="C127" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>175</v>
+      </c>
+      <c r="B128" t="s">
+        <v>168</v>
+      </c>
+      <c r="C128" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>175</v>
+      </c>
+      <c r="B129" t="s">
+        <v>168</v>
+      </c>
+      <c r="C129" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>175</v>
+      </c>
+      <c r="B130" t="s">
+        <v>168</v>
+      </c>
+      <c r="C130" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>175</v>
+      </c>
+      <c r="B131" t="s">
+        <v>168</v>
+      </c>
+      <c r="C131" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>175</v>
+      </c>
+      <c r="B132" t="s">
+        <v>168</v>
+      </c>
+      <c r="C132" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>175</v>
+      </c>
+      <c r="B133" t="s">
+        <v>168</v>
+      </c>
+      <c r="C133" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>175</v>
+      </c>
+      <c r="B134" t="s">
+        <v>168</v>
+      </c>
+      <c r="C134" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>175</v>
+      </c>
+      <c r="B135" t="s">
+        <v>168</v>
+      </c>
+      <c r="C135" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>175</v>
+      </c>
+      <c r="B136" t="s">
+        <v>168</v>
+      </c>
+      <c r="C136" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>175</v>
+      </c>
+      <c r="B137" t="s">
+        <v>168</v>
+      </c>
+      <c r="C137" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>175</v>
+      </c>
+      <c r="B138" t="s">
+        <v>168</v>
+      </c>
+      <c r="C138" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>175</v>
+      </c>
+      <c r="B139" t="s">
+        <v>168</v>
+      </c>
+      <c r="C139" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>175</v>
+      </c>
+      <c r="B140" t="s">
+        <v>168</v>
+      </c>
+      <c r="C140" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>175</v>
+      </c>
+      <c r="B141" t="s">
+        <v>168</v>
+      </c>
+      <c r="C141" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>175</v>
+      </c>
+      <c r="B142" t="s">
+        <v>168</v>
+      </c>
+      <c r="C142" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>175</v>
+      </c>
+      <c r="B143" t="s">
+        <v>168</v>
+      </c>
+      <c r="C143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>175</v>
+      </c>
+      <c r="B144" t="s">
+        <v>168</v>
+      </c>
+      <c r="C144" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>175</v>
+      </c>
+      <c r="B145" t="s">
+        <v>168</v>
+      </c>
+      <c r="C145" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>175</v>
+      </c>
+      <c r="B146" t="s">
+        <v>168</v>
+      </c>
+      <c r="C146" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>175</v>
+      </c>
+      <c r="B147" t="s">
+        <v>168</v>
+      </c>
+      <c r="C147" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>175</v>
+      </c>
+      <c r="B148" t="s">
+        <v>168</v>
+      </c>
+      <c r="C148" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>175</v>
+      </c>
+      <c r="B149" t="s">
+        <v>168</v>
+      </c>
+      <c r="C149" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>175</v>
+      </c>
+      <c r="B150" t="s">
+        <v>168</v>
+      </c>
+      <c r="C150" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>175</v>
+      </c>
+      <c r="B151" t="s">
+        <v>168</v>
+      </c>
+      <c r="C151" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>175</v>
+      </c>
+      <c r="B152" t="s">
+        <v>168</v>
+      </c>
+      <c r="C152" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>175</v>
+      </c>
+      <c r="B153" t="s">
+        <v>168</v>
+      </c>
+      <c r="C153" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>175</v>
+      </c>
+      <c r="B154" t="s">
+        <v>168</v>
+      </c>
+      <c r="C154" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>175</v>
+      </c>
+      <c r="B155" t="s">
+        <v>168</v>
+      </c>
+      <c r="C155" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>175</v>
+      </c>
+      <c r="B156" t="s">
+        <v>168</v>
+      </c>
+      <c r="C156" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>175</v>
+      </c>
+      <c r="B157" t="s">
+        <v>168</v>
+      </c>
+      <c r="C157" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>175</v>
+      </c>
+      <c r="B158" t="s">
+        <v>168</v>
+      </c>
+      <c r="C158" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>175</v>
+      </c>
+      <c r="B159" t="s">
+        <v>168</v>
+      </c>
+      <c r="C159" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>175</v>
+      </c>
+      <c r="B160" t="s">
+        <v>168</v>
+      </c>
+      <c r="C160" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>175</v>
+      </c>
+      <c r="B161" t="s">
+        <v>168</v>
+      </c>
+      <c r="C161" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6923,7 +8459,7 @@
         <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -6937,23 +8473,23 @@
         <v>150</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="N2" s="28" t="n"/>
       <c r="O2" s="28" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -7347,12 +8883,12 @@
         <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B2" t="n">
         <v>4200</v>
@@ -7363,7 +8899,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B3" t="n">
         <v>900</v>
@@ -7374,7 +8910,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B4" t="n">
         <v>900</v>
@@ -7413,26 +8949,26 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="31" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B1" s="31" t="n"/>
       <c r="C1" s="32" t="n"/>
       <c r="D1" s="31" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B2" s="33" t="n">
         <v>4200</v>
@@ -7445,7 +8981,7 @@
         <v/>
       </c>
       <c r="E2" s="13" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F2" t="n">
         <v>20</v>
@@ -7457,7 +8993,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B3" s="33" t="n">
         <v>900</v>
@@ -7470,7 +9006,7 @@
         <v/>
       </c>
       <c r="E3" s="13" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F3" t="n">
         <v>20</v>
@@ -7482,7 +9018,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B4" s="33" t="n">
         <v>900</v>
@@ -7495,7 +9031,7 @@
         <v/>
       </c>
       <c r="E4" s="13" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F4" t="n">
         <v>20</v>
@@ -7507,14 +9043,14 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C5" s="13" t="n"/>
       <c r="D5" s="13" t="n">
         <v>2300</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F5" t="n">
         <v>20</v>
@@ -7526,14 +9062,14 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C6" s="13" t="n"/>
       <c r="D6" s="13" t="n">
         <v>132000</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -7598,26 +9134,26 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="27" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B3" s="37" t="n">
         <v>1200</v>
@@ -7628,7 +9164,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="27" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B4" s="37" t="n">
         <v>1200</v>
@@ -7639,7 +9175,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="27" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B5" s="37" t="n">
         <v>1200</v>
@@ -7650,7 +9186,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7679,7 +9215,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="27" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B23" s="25" t="n">
         <v>500</v>
@@ -7687,7 +9223,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="27" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B24" s="25" t="n">
         <v>500</v>
@@ -7695,7 +9231,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="27" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B25" s="25" t="n">
         <v>500</v>
@@ -7703,19 +9239,19 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="38" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7768,7 +9304,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="27" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B32" s="25" t="n">
         <v>100</v>
@@ -7784,7 +9320,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="27" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B33" s="25" t="n">
         <v>100</v>
@@ -7800,7 +9336,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="27" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B34" s="25" t="n">
         <v>400</v>
@@ -7847,7 +9383,7 @@
         <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7858,7 +9394,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D2" s="12" t="n">
         <v>7503041710073</v>
@@ -7872,7 +9408,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>7503041710097</v>
@@ -7923,135 +9459,135 @@
   <sheetData>
     <row customFormat="1" r="1" s="41" spans="1:23">
       <c r="A1" s="41" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P1" s="41" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q1" s="41" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="R1" s="41" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="T1" s="41" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="U1" s="41" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="W1" s="41" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="J2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K2" s="39" t="n">
         <v>1800</v>
       </c>
       <c r="L2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M2" t="n">
         <v>1149</v>
       </c>
       <c r="N2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="O2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="R2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="S2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="U2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="V2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="W2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:23">
